--- a/Gruzin_eDziennikPraktyk_IIIinf_TechKreat2022-2023.xlsx
+++ b/Gruzin_eDziennikPraktyk_IIIinf_TechKreat2022-2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Technikum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD30350-456E-4EE0-9D65-D5F57B6DA04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0557147-AF48-4955-96DB-FA72A1BB109E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Imię i nazwisko:</t>
   </si>
@@ -1025,10 +1025,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1039,11 +1040,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1053,27 +1070,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1110,16 +1106,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2010,9 +2010,15 @@
       <c r="A15" s="20">
         <v>12</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="25"/>
+      <c r="B15" s="23">
+        <v>44964</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="25">
+        <v>5</v>
+      </c>
       <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:5" ht="27.9" customHeight="1">
@@ -2994,7 +3000,7 @@
       </c>
       <c r="D124" s="36">
         <f>SUM(D4:D123)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E124" s="31"/>
     </row>
@@ -3035,7 +3041,7 @@
   </sheetPr>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -3048,34 +3054,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="58.5" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76" t="str">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="72" t="str">
         <f>Praktykant!E23</f>
         <v>Vladyslav Gruzin</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1">
       <c r="B4" s="16"/>
@@ -3088,126 +3094,126 @@
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="84"/>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="86"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="86"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="86"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="86"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="89"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="34"/>
@@ -3221,31 +3227,31 @@
       <c r="J16" s="34"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="2:10" ht="29.25" customHeight="1">
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="78" t="s">
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="78"/>
+      <c r="J18" s="74"/>
     </row>
     <row r="19" spans="2:10" ht="15.9" customHeight="1">
       <c r="B19" s="67" t="s">
@@ -3257,8 +3263,8 @@
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
       <c r="H19" s="69"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="78"/>
     </row>
     <row r="20" spans="2:10" ht="15.9" customHeight="1">
       <c r="B20" s="67" t="s">
@@ -3270,8 +3276,8 @@
       <c r="F20" s="68"/>
       <c r="G20" s="68"/>
       <c r="H20" s="69"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="73"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="78"/>
     </row>
     <row r="21" spans="2:10" ht="15.9" customHeight="1">
       <c r="B21" s="67" t="s">
@@ -3283,8 +3289,8 @@
       <c r="F21" s="68"/>
       <c r="G21" s="68"/>
       <c r="H21" s="69"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="73"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
     </row>
     <row r="22" spans="2:10" ht="15.9" customHeight="1">
       <c r="B22" s="67" t="s">
@@ -3296,8 +3302,8 @@
       <c r="F22" s="68"/>
       <c r="G22" s="68"/>
       <c r="H22" s="69"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="73"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
     </row>
     <row r="23" spans="2:10" ht="15.9" customHeight="1">
       <c r="B23" s="67" t="s">
@@ -3309,8 +3315,8 @@
       <c r="F23" s="68"/>
       <c r="G23" s="68"/>
       <c r="H23" s="69"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="73"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="78"/>
     </row>
     <row r="24" spans="2:10" ht="15.9" customHeight="1">
       <c r="B24" s="67" t="s">
@@ -3322,8 +3328,8 @@
       <c r="F24" s="68"/>
       <c r="G24" s="68"/>
       <c r="H24" s="69"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="73"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
     </row>
     <row r="25" spans="2:10" ht="15.9" customHeight="1">
       <c r="B25" s="67" t="s">
@@ -3335,8 +3341,8 @@
       <c r="F25" s="68"/>
       <c r="G25" s="68"/>
       <c r="H25" s="69"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="73"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="78"/>
     </row>
     <row r="26" spans="2:10" ht="15.9" customHeight="1">
       <c r="B26" s="67" t="s">
@@ -3348,8 +3354,8 @@
       <c r="F26" s="68"/>
       <c r="G26" s="68"/>
       <c r="H26" s="69"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="73"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="78"/>
     </row>
     <row r="27" spans="2:10" ht="15.9" customHeight="1">
       <c r="B27" s="67" t="s">
@@ -3361,8 +3367,8 @@
       <c r="F27" s="68"/>
       <c r="G27" s="68"/>
       <c r="H27" s="69"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="73"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="78"/>
     </row>
     <row r="28" spans="2:10" ht="15.9" customHeight="1">
       <c r="B28" s="67" t="s">
@@ -3374,91 +3380,71 @@
       <c r="F28" s="68"/>
       <c r="G28" s="68"/>
       <c r="H28" s="69"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="78"/>
     </row>
     <row r="29" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="71" t="str">
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="90" t="str">
         <f>IF(COUNTBLANK(I19:I28)&gt;=1,"---",AVERAGE(I19:J28))</f>
         <v>---</v>
       </c>
-      <c r="J29" s="71"/>
+      <c r="J29" s="90"/>
     </row>
     <row r="32" spans="2:10" ht="28.5" customHeight="1">
       <c r="C32" s="18"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="65" t="s">
+      <c r="G33" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
     </row>
     <row r="36" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1">
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1">
       <c r="F43" s="15"/>
-      <c r="G43" s="65" t="s">
+      <c r="G43" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
     </row>
   </sheetData>
   <sheetProtection password="B4F9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="36">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B6:J15"/>
     <mergeCell ref="G43:J43"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B20:H20"/>
@@ -3475,6 +3461,26 @@
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B6:J15"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Uwaga!" error="Wpisana wartość jest nieprawidłowa!" promptTitle="Ocena końcowa" prompt="Wpisz ocenę w skali od 1 do 6" sqref="C32" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -3498,9 +3504,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3669,26 +3678,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F1D1CC7-6AB3-4344-B0D8-C946187D44AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A3028AB-A700-450A-93EB-EAF8469F693D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="84c8d074-0f3d-4131-a166-7a7055e5741a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3713,9 +3711,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A3028AB-A700-450A-93EB-EAF8469F693D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F1D1CC7-6AB3-4344-B0D8-C946187D44AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="84c8d074-0f3d-4131-a166-7a7055e5741a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Gruzin_eDziennikPraktyk_IIIinf_TechKreat2022-2023.xlsx
+++ b/Gruzin_eDziennikPraktyk_IIIinf_TechKreat2022-2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Technikum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repository\TODO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD30350-456E-4EE0-9D65-D5F57B6DA04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A54798-EC9F-48EE-B129-AF8166BFC33A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Imię i nazwisko:</t>
   </si>
@@ -202,6 +202,15 @@
   </si>
   <si>
     <t>Programowanie(Wygląd strony)</t>
+  </si>
+  <si>
+    <t>skończenie strony</t>
+  </si>
+  <si>
+    <t>dalszy rozwój strony, naprawa błędów</t>
+  </si>
+  <si>
+    <t>css</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1034,11 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1039,11 +1049,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1053,27 +1079,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1110,16 +1115,20 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1583,7 +1592,7 @@
   </sheetPr>
   <dimension ref="A13:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23:H23"/>
     </sheetView>
   </sheetViews>
@@ -1773,8 +1782,8 @@
   </sheetPr>
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -1989,7 +1998,9 @@
       <c r="D13" s="25">
         <v>5</v>
       </c>
-      <c r="E13" s="30"/>
+      <c r="E13" s="30" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="27.9" customHeight="1">
       <c r="A14" s="20">
@@ -2004,16 +2015,26 @@
       <c r="D14" s="25">
         <v>5</v>
       </c>
-      <c r="E14" s="30"/>
+      <c r="E14" s="30" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="27.9" customHeight="1">
       <c r="A15" s="20">
         <v>12</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="30"/>
+      <c r="B15" s="23">
+        <v>44964</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="25">
+        <v>5</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="27.9" customHeight="1">
       <c r="A16" s="20">
@@ -2994,7 +3015,7 @@
       </c>
       <c r="D124" s="36">
         <f>SUM(D4:D123)</f>
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E124" s="31"/>
     </row>
@@ -3048,34 +3069,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="58.5" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1">
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76" t="str">
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="72" t="str">
         <f>Praktykant!E23</f>
         <v>Vladyslav Gruzin</v>
       </c>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:11" ht="14.25" customHeight="1">
       <c r="B4" s="16"/>
@@ -3088,126 +3109,126 @@
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1">
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
     </row>
     <row r="6" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B6" s="81"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="83"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="81"/>
     </row>
     <row r="7" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="86"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
     </row>
     <row r="8" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="85"/>
-      <c r="H8" s="85"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="86"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="84"/>
     </row>
     <row r="9" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="85"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="86"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
     </row>
     <row r="10" spans="1:11" ht="14.25" customHeight="1">
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="86"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="85"/>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="86"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="86"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="86"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="88"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="89"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="87"/>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" s="34"/>
@@ -3221,31 +3242,31 @@
       <c r="J16" s="34"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
-      <c r="B17" s="77" t="s">
+      <c r="B17" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="77"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
     </row>
     <row r="18" spans="2:10" ht="29.25" customHeight="1">
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="78" t="s">
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="J18" s="78"/>
+      <c r="J18" s="74"/>
     </row>
     <row r="19" spans="2:10" ht="15.9" customHeight="1">
       <c r="B19" s="67" t="s">
@@ -3257,8 +3278,8 @@
       <c r="F19" s="68"/>
       <c r="G19" s="68"/>
       <c r="H19" s="69"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="78"/>
     </row>
     <row r="20" spans="2:10" ht="15.9" customHeight="1">
       <c r="B20" s="67" t="s">
@@ -3270,8 +3291,8 @@
       <c r="F20" s="68"/>
       <c r="G20" s="68"/>
       <c r="H20" s="69"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="73"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="78"/>
     </row>
     <row r="21" spans="2:10" ht="15.9" customHeight="1">
       <c r="B21" s="67" t="s">
@@ -3283,8 +3304,8 @@
       <c r="F21" s="68"/>
       <c r="G21" s="68"/>
       <c r="H21" s="69"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="73"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="78"/>
     </row>
     <row r="22" spans="2:10" ht="15.9" customHeight="1">
       <c r="B22" s="67" t="s">
@@ -3296,8 +3317,8 @@
       <c r="F22" s="68"/>
       <c r="G22" s="68"/>
       <c r="H22" s="69"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="73"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
     </row>
     <row r="23" spans="2:10" ht="15.9" customHeight="1">
       <c r="B23" s="67" t="s">
@@ -3309,8 +3330,8 @@
       <c r="F23" s="68"/>
       <c r="G23" s="68"/>
       <c r="H23" s="69"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="73"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="78"/>
     </row>
     <row r="24" spans="2:10" ht="15.9" customHeight="1">
       <c r="B24" s="67" t="s">
@@ -3322,8 +3343,8 @@
       <c r="F24" s="68"/>
       <c r="G24" s="68"/>
       <c r="H24" s="69"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="73"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="78"/>
     </row>
     <row r="25" spans="2:10" ht="15.9" customHeight="1">
       <c r="B25" s="67" t="s">
@@ -3335,8 +3356,8 @@
       <c r="F25" s="68"/>
       <c r="G25" s="68"/>
       <c r="H25" s="69"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="73"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="78"/>
     </row>
     <row r="26" spans="2:10" ht="15.9" customHeight="1">
       <c r="B26" s="67" t="s">
@@ -3348,8 +3369,8 @@
       <c r="F26" s="68"/>
       <c r="G26" s="68"/>
       <c r="H26" s="69"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="73"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="78"/>
     </row>
     <row r="27" spans="2:10" ht="15.9" customHeight="1">
       <c r="B27" s="67" t="s">
@@ -3361,8 +3382,8 @@
       <c r="F27" s="68"/>
       <c r="G27" s="68"/>
       <c r="H27" s="69"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="73"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="78"/>
     </row>
     <row r="28" spans="2:10" ht="15.9" customHeight="1">
       <c r="B28" s="67" t="s">
@@ -3374,91 +3395,71 @@
       <c r="F28" s="68"/>
       <c r="G28" s="68"/>
       <c r="H28" s="69"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="73"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="78"/>
     </row>
     <row r="29" spans="2:10" ht="19.5" customHeight="1">
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="71" t="str">
+      <c r="C29" s="89"/>
+      <c r="D29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="89"/>
+      <c r="H29" s="89"/>
+      <c r="I29" s="90" t="str">
         <f>IF(COUNTBLANK(I19:I28)&gt;=1,"---",AVERAGE(I19:J28))</f>
         <v>---</v>
       </c>
-      <c r="J29" s="71"/>
+      <c r="J29" s="90"/>
     </row>
     <row r="32" spans="2:10" ht="28.5" customHeight="1">
       <c r="C32" s="18"/>
-      <c r="G32" s="92"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="92"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
-      <c r="G33" s="65" t="s">
+      <c r="G33" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="71"/>
     </row>
     <row r="36" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1">
-      <c r="B37" s="90" t="s">
+      <c r="B37" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C37" s="90"/>
-      <c r="D37" s="90"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1">
       <c r="F43" s="15"/>
-      <c r="G43" s="65" t="s">
+      <c r="G43" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="65"/>
-      <c r="I43" s="65"/>
-      <c r="J43" s="65"/>
+      <c r="H43" s="71"/>
+      <c r="I43" s="71"/>
+      <c r="J43" s="71"/>
     </row>
   </sheetData>
   <sheetProtection password="B4F9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="36">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="B17:I17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B19:H19"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B6:J15"/>
     <mergeCell ref="G43:J43"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="B20:H20"/>
@@ -3475,6 +3476,26 @@
     <mergeCell ref="I28:J28"/>
     <mergeCell ref="B5:I5"/>
     <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="B17:I17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B6:J15"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Uwaga!" error="Wpisana wartość jest nieprawidłowa!" promptTitle="Ocena końcowa" prompt="Wpisz ocenę w skali od 1 do 6" sqref="C32" xr:uid="{00000000-0002-0000-0200-000000000000}">
@@ -3498,9 +3519,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3669,26 +3693,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F1D1CC7-6AB3-4344-B0D8-C946187D44AE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A3028AB-A700-450A-93EB-EAF8469F693D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="84c8d074-0f3d-4131-a166-7a7055e5741a"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3713,9 +3726,17 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0A3028AB-A700-450A-93EB-EAF8469F693D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F1D1CC7-6AB3-4344-B0D8-C946187D44AE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="84c8d074-0f3d-4131-a166-7a7055e5741a"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>